--- a/Vizsgaremek tesztmenedzser.xls.xlsx
+++ b/Vizsgaremek tesztmenedzser.xls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A729070-0A99-4E61-BCF6-E746395335AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091F923-C298-4AA8-9DFD-AABF26F45C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="675" windowWidth="24255" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
@@ -255,10 +255,6 @@
 2. jelszó</t>
   </si>
   <si>
-    <t>1.A Chromedriver működőképes
-2. A weboldal elérhető</t>
-  </si>
-  <si>
     <t>Index fórumról történő kilépés</t>
   </si>
   <si>
@@ -266,11 +262,6 @@
   </si>
   <si>
     <t>keresett kifejezés</t>
-  </si>
-  <si>
-    <t>1.A Chromedriver működőképes
-2. A weboldal elérhető
-3. A belépési adatok megfelelőek</t>
   </si>
   <si>
     <t>Index fórum összefoglaló szüvegének a kinyerése</t>
@@ -320,11 +311,6 @@
     <t>Index fórumra történő belépés a belépési adatok szöveges fájból való kiolvasásával</t>
   </si>
   <si>
-    <t>1. Chromedriver működőképes
-2. A weboldal elérhető
-3. Elérhető a szöveges fájl amiben a belépési adatok vannak</t>
-  </si>
-  <si>
     <t xml:space="preserve"> szöveges fájl</t>
   </si>
   <si>
@@ -334,11 +320,6 @@
     <t>Index fórumon történő regisztráció a megadott felhasználói adatokkal</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Chromedriver működőképes
-2. A weboldal elérhető
-</t>
-  </si>
-  <si>
     <t>Regisztrációs adatok</t>
   </si>
   <si>
@@ -357,10 +338,6 @@
     <t>Adatvédelmi Tájékoztató</t>
   </si>
   <si>
-    <t>1. Chromedriver működőképes
-2. A weboldal elérhető</t>
-  </si>
-  <si>
     <t>TC11</t>
   </si>
   <si>
@@ -374,11 +351,6 @@
   </si>
   <si>
     <t>Több keresési fogalom bevitele keresőmezőbe külső fájlból</t>
-  </si>
-  <si>
-    <t>1. Chromedriver működőképes
-2. A weboldal elérhető
-3. A keresési fogalmakat tartalmazó szöveges fájl elérhető</t>
   </si>
   <si>
     <t>Adatvédelmi szöveg</t>
@@ -459,9 +431,6 @@
 11. Pipázzuk ki az ÁSZF elfogadása gombot
 12. Mentsük el a változtatásokat
 13.Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>"Magamről" mező tartalmának törlése a beállításoknál</t>
   </si>
   <si>
     <t xml:space="preserve">1.Nyissuk meg a weboldalt 
@@ -539,6 +508,36 @@
 12. Kattintsunk a weboldal mezőre
 13. Írjuk be a weboldal címét
 14. Kattintsunk az ÁSZF-et elfogadó pipára
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ A weboldal elérhető</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.A weboldal elérhető
+2..Keresett fogalmak</t>
+  </si>
+  <si>
+    <t>1. A weboldal elérhető
+2. A belépési adatok megfelelőek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A weboldal elérhető</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. A weboldal elérhető
+2. A belépési adatok megfelelőek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A weboldal elérhető
 </t>
   </si>
 </sst>
@@ -671,151 +670,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1606,8 +1461,8 @@
   <dimension ref="A1:Y990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1682,13 +1537,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -1697,19 +1552,19 @@
         <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
@@ -1737,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1746,16 +1601,16 @@
         <v>59</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>70</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>13</v>
@@ -1783,10 +1638,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -1795,16 +1650,16 @@
         <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -1829,13 +1684,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -1844,16 +1699,16 @@
         <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -1881,10 +1736,10 @@
         <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -1893,16 +1748,16 @@
         <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -1930,10 +1785,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -1942,16 +1797,16 @@
         <v>59</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>13</v>
@@ -1979,10 +1834,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -1991,16 +1846,16 @@
         <v>59</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>13</v>
@@ -2025,13 +1880,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -2040,16 +1895,16 @@
         <v>59</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>13</v>
@@ -2070,16 +1925,16 @@
     </row>
     <row r="10" spans="1:25" ht="375" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -2088,16 +1943,16 @@
         <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>13</v>
@@ -2119,16 +1974,16 @@
     </row>
     <row r="11" spans="1:25" ht="291" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -2137,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>13</v>
@@ -2168,16 +2023,16 @@
     </row>
     <row r="12" spans="1:25" ht="321" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -2186,16 +2041,16 @@
         <v>59</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>13</v>
@@ -2217,16 +2072,16 @@
     </row>
     <row r="13" spans="1:25" ht="117" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -2235,16 +2090,16 @@
         <v>59</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>13</v>
@@ -8368,152 +8223,152 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="77" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="76" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="75" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="63" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="61" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8548,122 +8403,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10935,62 +10790,62 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
